--- a/opm_hero_property/heroes/10.xlsx
+++ b/opm_hero_property/heroes/10.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11138</v>
       </c>
       <c r="D4" t="n">
-        <v>11138</v>
+        <v>11780</v>
       </c>
       <c r="E4" t="n">
         <v>228</v>
@@ -1304,7 +1305,7 @@
         <v>12427</v>
       </c>
       <c r="D5" t="n">
-        <v>12427</v>
+        <v>13798</v>
       </c>
       <c r="E5" t="n">
         <v>342</v>
@@ -1411,7 +1412,7 @@
         <v>13944</v>
       </c>
       <c r="D6" t="n">
-        <v>13944</v>
+        <v>16172</v>
       </c>
       <c r="E6" t="n">
         <v>469</v>
@@ -1518,7 +1519,7 @@
         <v>15688</v>
       </c>
       <c r="D7" t="n">
-        <v>15688</v>
+        <v>21127</v>
       </c>
       <c r="E7" t="n">
         <v>879</v>
@@ -1625,7 +1626,7 @@
         <v>17660</v>
       </c>
       <c r="D8" t="n">
-        <v>17660</v>
+        <v>27981</v>
       </c>
       <c r="E8" t="n">
         <v>1302</v>
@@ -1732,7 +1733,7 @@
         <v>19935</v>
       </c>
       <c r="D9" t="n">
-        <v>19935</v>
+        <v>37208</v>
       </c>
       <c r="E9" t="n">
         <v>1719</v>
@@ -1839,7 +1840,7 @@
         <v>21149</v>
       </c>
       <c r="D10" t="n">
-        <v>21149</v>
+        <v>44893</v>
       </c>
       <c r="E10" t="n">
         <v>2032</v>
@@ -1946,7 +1947,7 @@
         <v>22590</v>
       </c>
       <c r="D11" t="n">
-        <v>22590</v>
+        <v>54328</v>
       </c>
       <c r="E11" t="n">
         <v>2371</v>
@@ -2053,7 +2054,7 @@
         <v>25623</v>
       </c>
       <c r="D12" t="n">
-        <v>25623</v>
+        <v>71122</v>
       </c>
       <c r="E12" t="n">
         <v>2918</v>
@@ -2160,7 +2161,7 @@
         <v>26230</v>
       </c>
       <c r="D13" t="n">
-        <v>26230</v>
+        <v>73496</v>
       </c>
       <c r="E13" t="n">
         <v>3282</v>
@@ -2267,7 +2268,7 @@
         <v>26837</v>
       </c>
       <c r="D14" t="n">
-        <v>26837</v>
+        <v>75869</v>
       </c>
       <c r="E14" t="n">
         <v>3647</v>
@@ -2374,7 +2375,7 @@
         <v>27444</v>
       </c>
       <c r="D15" t="n">
-        <v>27444</v>
+        <v>78243</v>
       </c>
       <c r="E15" t="n">
         <v>4012</v>
@@ -2481,7 +2482,7 @@
         <v>28050</v>
       </c>
       <c r="D16" t="n">
-        <v>28050</v>
+        <v>80617</v>
       </c>
       <c r="E16" t="n">
         <v>4376</v>
@@ -2588,7 +2589,7 @@
         <v>28657</v>
       </c>
       <c r="D17" t="n">
-        <v>28657</v>
+        <v>82990</v>
       </c>
       <c r="E17" t="n">
         <v>4741</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29938.6120688</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5397.5360648</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2026.3692</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2600</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>42752.0370008</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7609.748828000001</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3163.297</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2600</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>77899.570112</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13236.375675</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6881.654</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2600</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>77899.570112</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13236.375675</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6881.654</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1580</v>
+      </c>
+      <c r="X5" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1260</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2600</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>10</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>64674.143552</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12545.987925</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6881.654</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1580</v>
+      </c>
+      <c r="X6" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1260</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>10</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>285909.517944</v>
+      </c>
+      <c r="U7" t="n">
+        <v>45560.363144</v>
+      </c>
+      <c r="V7" t="n">
+        <v>30396.4054</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X7" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>4200</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>226217.341224</v>
+      </c>
+      <c r="U8" t="n">
+        <v>42647.890424</v>
+      </c>
+      <c r="V8" t="n">
+        <v>30396.4054</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X8" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3600</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>246114.733464</v>
+      </c>
+      <c r="U9" t="n">
+        <v>43618.71466400001</v>
+      </c>
+      <c r="V9" t="n">
+        <v>30396.4054</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X9" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3800</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>10</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>266012.125704</v>
+      </c>
+      <c r="U10" t="n">
+        <v>44589.538904</v>
+      </c>
+      <c r="V10" t="n">
+        <v>30396.4054</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X10" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>285909.517944</v>
+      </c>
+      <c r="U11" t="n">
+        <v>45560.363144</v>
+      </c>
+      <c r="V11" t="n">
+        <v>30396.4054</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X11" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>4200</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>285909.517944</v>
+      </c>
+      <c r="U12" t="n">
+        <v>45560.363144</v>
+      </c>
+      <c r="V12" t="n">
+        <v>30396.4054</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2460</v>
+      </c>
+      <c r="X12" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2280</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>4200</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>10</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>424054.2361824</v>
+      </c>
+      <c r="U13" t="n">
+        <v>68032.1482174</v>
+      </c>
+      <c r="V13" t="n">
+        <v>51391.5062</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2620</v>
+      </c>
+      <c r="X13" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2400</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4200</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>10</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>424054.2361824</v>
+      </c>
+      <c r="U14" t="n">
+        <v>68032.1482174</v>
+      </c>
+      <c r="V14" t="n">
+        <v>51391.5062</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2700</v>
+      </c>
+      <c r="X14" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2460</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>4200</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>10</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1018241.4915992</v>
+      </c>
+      <c r="U15" t="n">
+        <v>168500.67598</v>
+      </c>
+      <c r="V15" t="n">
+        <v>143764.9</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3020</v>
+      </c>
+      <c r="X15" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>4200</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>10</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5358674.285612</v>
+      </c>
+      <c r="U16" t="n">
+        <v>862724.4535893</v>
+      </c>
+      <c r="V16" t="n">
+        <v>729445.873</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3660</v>
+      </c>
+      <c r="X16" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4200</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>10</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8758552.417245999</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1411589.4994547</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1185354.036</v>
+      </c>
+      <c r="W17" t="n">
+        <v>4700</v>
+      </c>
+      <c r="X17" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3960</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>4200</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>10</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>213693.563328</v>
+      </c>
+      <c r="U18" t="n">
+        <v>43385.54249209999</v>
+      </c>
+      <c r="V18" t="n">
+        <v>27693.6244</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1580</v>
+      </c>
+      <c r="X18" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1260</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>10</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>299573.6000056</v>
+      </c>
+      <c r="U19" t="n">
+        <v>55339.803458</v>
+      </c>
+      <c r="V19" t="n">
+        <v>37392.4944</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2460</v>
+      </c>
+      <c r="X19" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2280</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3800</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>10</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>397917.752056</v>
+      </c>
+      <c r="U20" t="n">
+        <v>68148.3036959</v>
+      </c>
+      <c r="V20" t="n">
+        <v>51330.5938</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X20" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>472304.6688048</v>
+      </c>
+      <c r="U21" t="n">
+        <v>79206.5111002</v>
+      </c>
+      <c r="V21" t="n">
+        <v>58966.65590000001</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2700</v>
+      </c>
+      <c r="X21" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2460</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>4200</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>10</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>542338.0424800001</v>
+      </c>
+      <c r="U22" t="n">
+        <v>96389.76601000001</v>
+      </c>
+      <c r="V22" t="n">
+        <v>72065.5753</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3020</v>
+      </c>
+      <c r="X22" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>4200</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>10</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>686981.496774</v>
+      </c>
+      <c r="U23" t="n">
+        <v>131432.2980641</v>
+      </c>
+      <c r="V23" t="n">
+        <v>98581.769</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3660</v>
+      </c>
+      <c r="X23" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>4200</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/10.xlsx
+++ b/opm_hero_property/heroes/10.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29938.6120688</v>
+        <v>5493551.285612</v>
       </c>
       <c r="U2" t="n">
-        <v>5397.5360648</v>
+        <v>886452.4535893</v>
       </c>
       <c r="V2" t="n">
-        <v>2026.3692</v>
+        <v>751285.873</v>
       </c>
       <c r="W2" t="n">
-        <v>1500</v>
+        <v>3660</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1200</v>
+        <v>3180</v>
       </c>
       <c r="AA2" t="n">
-        <v>2600</v>
+        <v>4200</v>
       </c>
       <c r="AB2" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11648384.82544</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1694594.10968817</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2007105.4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15945356.98512817</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>42752.0370008</v>
+        <v>686981.496774</v>
       </c>
       <c r="U3" t="n">
-        <v>7609.748828000001</v>
+        <v>131432.2980641</v>
       </c>
       <c r="V3" t="n">
-        <v>3163.297</v>
+        <v>98581.769</v>
       </c>
       <c r="W3" t="n">
-        <v>1500</v>
+        <v>3660</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1200</v>
+        <v>3180</v>
       </c>
       <c r="AA3" t="n">
-        <v>2600</v>
+        <v>4200</v>
       </c>
       <c r="AB3" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1321097.41778</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>191292.10738629</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>480680.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2176099.52516629</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>77899.570112</v>
+        <v>7150.160400000001</v>
       </c>
       <c r="U4" t="n">
-        <v>13236.375675</v>
+        <v>1629.4136</v>
       </c>
       <c r="V4" t="n">
-        <v>6881.654</v>
+        <v>618.3692</v>
       </c>
       <c r="W4" t="n">
-        <v>1500</v>
+        <v>562</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="AA4" t="n">
-        <v>2600</v>
+        <v>400</v>
       </c>
       <c r="AB4" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19212.08714</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4549.950000000001</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23762.03714</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>77899.570112</v>
+        <v>18931.3914</v>
       </c>
       <c r="U5" t="n">
-        <v>13236.375675</v>
+        <v>4083.396</v>
       </c>
       <c r="V5" t="n">
-        <v>6881.654</v>
+        <v>1922.297</v>
       </c>
       <c r="W5" t="n">
-        <v>1580</v>
+        <v>673</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1260</v>
+        <v>480</v>
       </c>
       <c r="AA5" t="n">
-        <v>2600</v>
+        <v>800</v>
       </c>
       <c r="AB5" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>49054.13155000001</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11988.35</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>61042.48155</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>64674.143552</v>
+        <v>53233.296</v>
       </c>
       <c r="U6" t="n">
-        <v>12545.987925</v>
+        <v>10582.975</v>
       </c>
       <c r="V6" t="n">
-        <v>6881.654</v>
+        <v>6130.654</v>
       </c>
       <c r="W6" t="n">
-        <v>1580</v>
+        <v>1000</v>
       </c>
       <c r="X6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="AA6" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="AB6" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>117946.284</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9526.799999999999</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>166479.584</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>285909.517944</v>
+        <v>53233.296</v>
       </c>
       <c r="U7" t="n">
-        <v>45560.363144</v>
+        <v>10582.975</v>
       </c>
       <c r="V7" t="n">
-        <v>30396.4054</v>
+        <v>6130.654</v>
       </c>
       <c r="W7" t="n">
-        <v>2540</v>
+        <v>1080</v>
       </c>
       <c r="X7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>2340</v>
+        <v>960</v>
       </c>
       <c r="AA7" t="n">
-        <v>4200</v>
+        <v>1500</v>
       </c>
       <c r="AB7" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>117946.284</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9709.799999999999</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>166662.584</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>226217.341224</v>
+        <v>53674.143552</v>
       </c>
       <c r="U8" t="n">
-        <v>42647.890424</v>
+        <v>10605.987925</v>
       </c>
       <c r="V8" t="n">
-        <v>30396.4054</v>
+        <v>6130.654</v>
       </c>
       <c r="W8" t="n">
-        <v>2540</v>
+        <v>1080</v>
       </c>
       <c r="X8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>2340</v>
+        <v>960</v>
       </c>
       <c r="AA8" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="AB8" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>117946.284</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>599.6367345000001</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9709.799999999999</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>167262.2207345</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,21 +7776,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>246114.733464</v>
+        <v>223438.602</v>
       </c>
       <c r="U9" t="n">
-        <v>43618.71466400001</v>
+        <v>42707.808</v>
       </c>
       <c r="V9" t="n">
-        <v>30396.4054</v>
+        <v>30523.4054</v>
       </c>
       <c r="W9" t="n">
         <v>2540</v>
@@ -7597,7 +7805,7 @@
         <v>2340</v>
       </c>
       <c r="AA9" t="n">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="AB9" t="n">
         <v>1080</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>537221.6582500001</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>705950.0582500001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,21 +7911,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>266012.125704</v>
+        <v>225428.341224</v>
       </c>
       <c r="U10" t="n">
-        <v>44589.538904</v>
+        <v>42804.890424</v>
       </c>
       <c r="V10" t="n">
-        <v>30396.4054</v>
+        <v>30523.4054</v>
       </c>
       <c r="W10" t="n">
         <v>2540</v>
@@ -7708,7 +7940,7 @@
         <v>2340</v>
       </c>
       <c r="AA10" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="AB10" t="n">
         <v>1080</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>537221.6582500001</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2659.6079496</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>708609.6661996001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,21 +8046,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>285909.517944</v>
+        <v>245325.733464</v>
       </c>
       <c r="U11" t="n">
-        <v>45560.363144</v>
+        <v>43775.71466400001</v>
       </c>
       <c r="V11" t="n">
-        <v>30396.4054</v>
+        <v>30523.4054</v>
       </c>
       <c r="W11" t="n">
         <v>2540</v>
@@ -7819,7 +8075,7 @@
         <v>2340</v>
       </c>
       <c r="AA11" t="n">
-        <v>4200</v>
+        <v>3800</v>
       </c>
       <c r="AB11" t="n">
         <v>1080</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>537221.6582500001</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>29425.6874456</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>735375.7456956002</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,24 +8181,24 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>285909.517944</v>
+        <v>265223.125704</v>
       </c>
       <c r="U12" t="n">
-        <v>45560.363144</v>
+        <v>44746.538904</v>
       </c>
       <c r="V12" t="n">
-        <v>30396.4054</v>
+        <v>30523.4054</v>
       </c>
       <c r="W12" t="n">
-        <v>2460</v>
+        <v>2540</v>
       </c>
       <c r="X12" t="n">
         <v>720</v>
@@ -7927,10 +8207,10 @@
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2280</v>
+        <v>2340</v>
       </c>
       <c r="AA12" t="n">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="AB12" t="n">
         <v>1080</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>537221.6582500001</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>56191.7669416</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>762141.8251916001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,20 +8320,20 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>424054.2361824</v>
+        <v>285120.517944</v>
       </c>
       <c r="U13" t="n">
-        <v>68032.1482174</v>
+        <v>45717.363144</v>
       </c>
       <c r="V13" t="n">
-        <v>51391.5062</v>
+        <v>30523.4054</v>
       </c>
       <c r="W13" t="n">
-        <v>2620</v>
+        <v>2540</v>
       </c>
       <c r="X13" t="n">
         <v>720</v>
@@ -8038,7 +8342,7 @@
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2400</v>
+        <v>2340</v>
       </c>
       <c r="AA13" t="n">
         <v>4200</v>
@@ -8050,25 +8354,49 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>537221.6582500001</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>82957.8464376</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>788907.9046876001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,20 +8455,20 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>424054.2361824</v>
+        <v>285120.517944</v>
       </c>
       <c r="U14" t="n">
-        <v>68032.1482174</v>
+        <v>45717.363144</v>
       </c>
       <c r="V14" t="n">
-        <v>51391.5062</v>
+        <v>30523.4054</v>
       </c>
       <c r="W14" t="n">
-        <v>2700</v>
+        <v>2460</v>
       </c>
       <c r="X14" t="n">
         <v>720</v>
@@ -8149,7 +8477,7 @@
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2460</v>
+        <v>2280</v>
       </c>
       <c r="AA14" t="n">
         <v>4200</v>
@@ -8161,25 +8489,49 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>537221.6582500001</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>82957.8464376</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>39155.4</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>788724.9046876001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,20 +8590,20 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1018241.4915992</v>
+        <v>426554.2361824</v>
       </c>
       <c r="U15" t="n">
-        <v>168500.67598</v>
+        <v>68840.1482174</v>
       </c>
       <c r="V15" t="n">
-        <v>143764.9</v>
+        <v>52165.5062</v>
       </c>
       <c r="W15" t="n">
-        <v>3020</v>
+        <v>2620</v>
       </c>
       <c r="X15" t="n">
         <v>720</v>
@@ -8260,7 +8612,7 @@
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="AA15" t="n">
         <v>4200</v>
@@ -8272,25 +8624,49 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>831178.18727</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>123952.58226246</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111894</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1214513.91953246</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,20 +8725,20 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5358674.285612</v>
+        <v>426554.2361824</v>
       </c>
       <c r="U16" t="n">
-        <v>862724.4535893</v>
+        <v>68840.1482174</v>
       </c>
       <c r="V16" t="n">
-        <v>729445.873</v>
+        <v>52165.5062</v>
       </c>
       <c r="W16" t="n">
-        <v>3660</v>
+        <v>2700</v>
       </c>
       <c r="X16" t="n">
         <v>720</v>
@@ -8371,7 +8747,7 @@
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>3180</v>
+        <v>2460</v>
       </c>
       <c r="AA16" t="n">
         <v>4200</v>
@@ -8383,25 +8759,49 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>831178.18727</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>123952.58226246</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>112077</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1214696.91953246</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,20 +8860,20 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8758552.417245999</v>
+        <v>1055736.4915992</v>
       </c>
       <c r="U17" t="n">
-        <v>1411589.4994547</v>
+        <v>175357.67598</v>
       </c>
       <c r="V17" t="n">
-        <v>1185354.036</v>
+        <v>150397.9</v>
       </c>
       <c r="W17" t="n">
-        <v>4700</v>
+        <v>3020</v>
       </c>
       <c r="X17" t="n">
         <v>720</v>
@@ -8482,7 +8882,7 @@
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>3960</v>
+        <v>2700</v>
       </c>
       <c r="AA17" t="n">
         <v>4200</v>
@@ -8494,58 +8894,82 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1915557.7176</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>273879.1632612</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685015</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3144418.3808612</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>213693.563328</v>
+        <v>5493551.285612</v>
       </c>
       <c r="U18" t="n">
-        <v>43385.54249209999</v>
+        <v>886452.4535893</v>
       </c>
       <c r="V18" t="n">
-        <v>27693.6244</v>
+        <v>751285.873</v>
       </c>
       <c r="W18" t="n">
-        <v>1580</v>
+        <v>3660</v>
       </c>
       <c r="X18" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1260</v>
+        <v>3180</v>
       </c>
       <c r="AA18" t="n">
-        <v>2000</v>
+        <v>4200</v>
       </c>
       <c r="AB18" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11648384.82544</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1694594.10968817</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2007105.4</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15945356.98512817</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,34 +9116,34 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>299573.6000056</v>
+        <v>9068270.417245999</v>
       </c>
       <c r="U19" t="n">
-        <v>55339.803458</v>
+        <v>1465622.4994547</v>
       </c>
       <c r="V19" t="n">
-        <v>37392.4944</v>
+        <v>1234586.036</v>
       </c>
       <c r="W19" t="n">
-        <v>2460</v>
+        <v>4700</v>
       </c>
       <c r="X19" t="n">
         <v>720</v>
@@ -8704,10 +9152,10 @@
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2280</v>
+        <v>3960</v>
       </c>
       <c r="AA19" t="n">
-        <v>3800</v>
+        <v>4200</v>
       </c>
       <c r="AB19" t="n">
         <v>1080</v>
@@ -8716,25 +9164,49 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18895426.09801</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2755957.12247343</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3470479</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26297704.37048343</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>397917.752056</v>
+        <v>202693.563328</v>
       </c>
       <c r="U20" t="n">
-        <v>68148.3036959</v>
+        <v>41445.54249209999</v>
       </c>
       <c r="V20" t="n">
-        <v>51330.5938</v>
+        <v>26942.6244</v>
       </c>
       <c r="W20" t="n">
-        <v>2540</v>
+        <v>1080</v>
       </c>
       <c r="X20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>2340</v>
+        <v>960</v>
       </c>
       <c r="AA20" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="AB20" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>565007.65613</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2833.04069349</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>33359.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>648743.39682349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>472304.6688048</v>
+        <v>276473.6000056</v>
       </c>
       <c r="U21" t="n">
-        <v>79206.5111002</v>
+        <v>51265.803458</v>
       </c>
       <c r="V21" t="n">
-        <v>58966.65590000001</v>
+        <v>35815.6944</v>
       </c>
       <c r="W21" t="n">
-        <v>2700</v>
+        <v>1410</v>
       </c>
       <c r="X21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>2460</v>
+        <v>1470</v>
       </c>
       <c r="AA21" t="n">
-        <v>4200</v>
+        <v>2450</v>
       </c>
       <c r="AB21" t="n">
-        <v>1080</v>
+        <v>675</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>672155.978</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49269</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>36557.4586658</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>66719.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>843730.1366658</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,34 +9521,34 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>542338.0424800001</v>
+        <v>397917.752056</v>
       </c>
       <c r="U22" t="n">
-        <v>96389.76601000001</v>
+        <v>68148.3036959</v>
       </c>
       <c r="V22" t="n">
-        <v>72065.5753</v>
+        <v>51330.5938</v>
       </c>
       <c r="W22" t="n">
-        <v>3020</v>
+        <v>2540</v>
       </c>
       <c r="X22" t="n">
         <v>720</v>
@@ -9037,10 +9557,10 @@
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2700</v>
+        <v>2340</v>
       </c>
       <c r="AA22" t="n">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="AB22" t="n">
         <v>1080</v>
@@ -9049,25 +9569,49 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>854985.6095200001</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>86421.30238770999</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>96891.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1175949.96190771</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,20 +9670,20 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>686981.496774</v>
+        <v>472304.6688048</v>
       </c>
       <c r="U23" t="n">
-        <v>131432.2980641</v>
+        <v>79206.5111002</v>
       </c>
       <c r="V23" t="n">
-        <v>98581.769</v>
+        <v>58966.65590000001</v>
       </c>
       <c r="W23" t="n">
-        <v>3660</v>
+        <v>2700</v>
       </c>
       <c r="X23" t="n">
         <v>720</v>
@@ -9148,7 +9692,7 @@
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>3180</v>
+        <v>2460</v>
       </c>
       <c r="AA23" t="n">
         <v>4200</v>
@@ -9160,25 +9704,319 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>934665.010485</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>138365.25633618</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>153419</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1371081.86682118</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>10</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>542338.0424800001</v>
+      </c>
+      <c r="U24" t="n">
+        <v>96389.76601000001</v>
+      </c>
+      <c r="V24" t="n">
+        <v>72065.5753</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3020</v>
+      </c>
+      <c r="X24" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4200</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1060324.130975</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>155458.154949</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>262506.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1635730.485924</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>10</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>686981.496774</v>
+      </c>
+      <c r="U25" t="n">
+        <v>131432.2980641</v>
+      </c>
+      <c r="V25" t="n">
+        <v>98581.769</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3660</v>
+      </c>
+      <c r="X25" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>4200</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1321097.41778</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>191292.10738629</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>480680.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2176099.52516629</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/10.xlsx
+++ b/opm_hero_property/heroes/10.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,56209;31,5717;41,2948</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,168629;31,0;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,84252;31,0;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,6748;31,690;41,422</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,20246;31,0;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,10115;31,0;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>56209.8355</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>5717.8716</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2948.0428</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>168629.5065</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>84252.98419999999</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>6748.924</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>690.2028</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>422.982</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>20246.772</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>10115.9696</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,56215;31,5718;41,2948</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,168645;31,0;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,84260;31,0;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,6754;31,691;41,423</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,20262;31,0;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,10123;31,0;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>56215.0225</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>5718.75</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2948.565</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>168645.0675</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>84260.75899999999</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>6754.111</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>691.0812000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>423.5042</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>20262.333</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>10123.7444</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,59652;31,6359;41,3453</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,178956;31,0;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,89412;31,0;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,7124;31,760;41,479</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,21373;31,0;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,10678;31,0;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>59652.018062</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>6359.94499496</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>3453.8608638</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>178956.054186</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>89412.4754248</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>7124.530049</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>760.1274855200001</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>479.3392414</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>21373.590147</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>10678.9659196</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,63548;31,7086;41,4026</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,190645;31,0;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,95252;31,0;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,7543;31,838;41,542</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,22631;31,0;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,11307;31,0;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>63548.4331573</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>7086.07527484</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>4026.64893658</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>190645.2994719</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>95252.81629291999</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>7543.843065849999</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>838.1912570799999</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>542.57004474</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>22631.52919755</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>11307.47466134</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,52413;31,11390;41,4410</t>
+          <t>21,68137;31,7940;41,4700</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,211689;31,1;41,1</t>
+          <t>21,204412;31,0;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,105844;31,1;41,1</t>
+          <t>21,102131;31,0;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6182;31,1334;41,578</t>
+          <t>21,8037;31,930;41,616</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,24970;31,1;41,1</t>
+          <t>21,24112;31,0;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,12485;31,1;41,1</t>
+          <t>21,12047;31,0;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>52413</v>
+        <v>68137.33664010001</v>
       </c>
       <c r="O6" t="n">
-        <v>11390</v>
+        <v>7940.611052480001</v>
       </c>
       <c r="P6" t="n">
-        <v>4410</v>
+        <v>4700.42904212</v>
       </c>
       <c r="Q6" t="n">
-        <v>211689</v>
+        <v>204412.0099203</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>105844</v>
+        <v>102131.12876604</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6182</v>
+        <v>8037.38307645</v>
       </c>
       <c r="X6" t="n">
-        <v>1334</v>
+        <v>930.02967776</v>
       </c>
       <c r="Y6" t="n">
-        <v>578</v>
+        <v>616.9007163599999</v>
       </c>
       <c r="Z6" t="n">
-        <v>24970</v>
+        <v>24112.14922935</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>12485</v>
+        <v>12047.24232558</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,58128;31,12801;41,5731</t>
+          <t>21,75567;31,8924;41,6107</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,234773;31,1;41,1</t>
+          <t>21,226702;31,0;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,117386;31,1;41,1</t>
+          <t>21,113268;31,0;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,6803;31,1487;41,725</t>
+          <t>21,8844;31,1036;41,773</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,27479;31,1;41,1</t>
+          <t>21,26534;31,0;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,13739;31,1;41,1</t>
+          <t>21,13257;31,0;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>58128</v>
+        <v>75567.591099</v>
       </c>
       <c r="O7" t="n">
-        <v>12801</v>
+        <v>8924.282880960001</v>
       </c>
       <c r="P7" t="n">
-        <v>5731</v>
+        <v>6107.92136017</v>
       </c>
       <c r="Q7" t="n">
-        <v>234773</v>
+        <v>226702.773297</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>117386</v>
+        <v>113268.3453396</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6803</v>
+        <v>8844.821485500001</v>
       </c>
       <c r="X7" t="n">
-        <v>1487</v>
+        <v>1036.87606752</v>
       </c>
       <c r="Y7" t="n">
-        <v>725</v>
+        <v>773.2254080099999</v>
       </c>
       <c r="Z7" t="n">
-        <v>27479</v>
+        <v>26534.46445650001</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>13739</v>
+        <v>13257.5126442</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,65518;31,14395;41,7557</t>
+          <t>21,85173;31,10035;41,8054</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,264618;31,1;41,1</t>
+          <t>21,255521;31,0;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,132309;31,1;41,1</t>
+          <t>21,127667;31,0;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,7603;31,1659;41,927</t>
+          <t>21,9884;31,1156;41,988</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,30708;31,1;41,1</t>
+          <t>21,29653;31,0;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,15354;31,1;41,1</t>
+          <t>21,14815;31,0;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>65518</v>
+        <v>85173.7608722</v>
       </c>
       <c r="O8" t="n">
-        <v>14395</v>
+        <v>10035.8478072</v>
       </c>
       <c r="P8" t="n">
-        <v>7557</v>
+        <v>8054.23184651</v>
       </c>
       <c r="Q8" t="n">
-        <v>264618</v>
+        <v>255521.2826166</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>132309</v>
+        <v>127667.04376888</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>7603</v>
+        <v>9884.3613869</v>
       </c>
       <c r="X8" t="n">
-        <v>1659</v>
+        <v>1156.9847064</v>
       </c>
       <c r="Y8" t="n">
-        <v>927</v>
+        <v>988.85922203</v>
       </c>
       <c r="Z8" t="n">
-        <v>30708</v>
+        <v>29653.0841607</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>15354</v>
+        <v>14815.68014476</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,75019;31,16234;41,10015</t>
+          <t>21,97525;31,11317;41,10673</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,302991;31,1;41,1</t>
+          <t>21,292575;31,0;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,151495;31,1;41,1</t>
+          <t>21,146180;31,0;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,8627;31,1857;41,1199</t>
+          <t>21,11215;31,1294;41,1278</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,34845;31,1;41,1</t>
+          <t>21,33647;31,0;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,17422;31,1;41,1</t>
+          <t>21,16811;31,0;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>75019</v>
+        <v>97525.10449500001</v>
       </c>
       <c r="O9" t="n">
-        <v>16234</v>
+        <v>11317.5043502</v>
       </c>
       <c r="P9" t="n">
-        <v>10015</v>
+        <v>10673.70315768</v>
       </c>
       <c r="Q9" t="n">
-        <v>302991</v>
+        <v>292575.313485</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>151495</v>
+        <v>146180.486298</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>8627</v>
+        <v>11215.8139275</v>
       </c>
       <c r="X9" t="n">
-        <v>1857</v>
+        <v>1294.8465974</v>
       </c>
       <c r="Y9" t="n">
-        <v>1199</v>
+        <v>1278.45693304</v>
       </c>
       <c r="Z9" t="n">
-        <v>34845</v>
+        <v>33647.44178250001</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>17422</v>
+        <v>16811.395821</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,82140;31,17215;41,12062</t>
+          <t>21,106783;31,12001;41,12855</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,331754;31,1;41,1</t>
+          <t>21,320349;31,0;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,165877;31,1;41,1</t>
+          <t>21,160057;31,0;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,9395;31,1962;41,1425</t>
+          <t>21,12213;31,1368;41,1519</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,37946;31,1;41,1</t>
+          <t>21,36641;31,0;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,18973;31,1;41,1</t>
+          <t>21,18307;31,0;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>82140</v>
+        <v>106783.088412</v>
       </c>
       <c r="O10" t="n">
-        <v>17215</v>
+        <v>12001.36291108</v>
       </c>
       <c r="P10" t="n">
-        <v>12062</v>
+        <v>12855.40811403</v>
       </c>
       <c r="Q10" t="n">
-        <v>331754</v>
+        <v>320349.265236</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>165877</v>
+        <v>160057.2885648</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>9395</v>
+        <v>12213.825624</v>
       </c>
       <c r="X10" t="n">
-        <v>1962</v>
+        <v>1368.34616596</v>
       </c>
       <c r="Y10" t="n">
-        <v>1425</v>
+        <v>1519.65266459</v>
       </c>
       <c r="Z10" t="n">
-        <v>37946</v>
+        <v>36641.47687200001</v>
       </c>
       <c r="AA10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>18973</v>
+        <v>18307.3166496</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,90825;31,18379;41,14575</t>
+          <t>21,118073;31,12812;41,15533</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,366832;31,1;41,1</t>
+          <t>21,354220;31,0;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,183416;31,1;41,1</t>
+          <t>21,176980;31,0;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,10330;31,2087;41,1703</t>
+          <t>21,13429;31,1455;41,1815</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,41721;31,1;41,1</t>
+          <t>21,40287;31,0;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,20860;31,1;41,1</t>
+          <t>21,20129;31,0;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>90825</v>
+        <v>118073.6645907</v>
       </c>
       <c r="O11" t="n">
-        <v>18379</v>
+        <v>12812.9423228</v>
       </c>
       <c r="P11" t="n">
-        <v>14575</v>
+        <v>15533.60311288</v>
       </c>
       <c r="Q11" t="n">
-        <v>366832</v>
+        <v>354220.9937721</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>183416</v>
+        <v>176980.74560628</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>10330</v>
+        <v>13429.21413015</v>
       </c>
       <c r="X11" t="n">
-        <v>2087</v>
+        <v>1455.4385036</v>
       </c>
       <c r="Y11" t="n">
-        <v>1703</v>
+        <v>1815.45279864</v>
       </c>
       <c r="Z11" t="n">
-        <v>41721</v>
+        <v>40287.64239045</v>
       </c>
       <c r="AA11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>20860</v>
+        <v>20129.06381706</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,106824;31,20829;41,19048</t>
+          <t>21,138872;31,14521;41,20300</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,431448;31,1;41,1</t>
+          <t>21,416616;31,0;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,215724;31,1;41,1</t>
+          <t>21,208155;31,0;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,12049;31,2350;41,2196</t>
+          <t>21,15664;31,1638;41,2341</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,48667;31,1;41,1</t>
+          <t>21,46994;31,0;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,24333;31,1;41,1</t>
+          <t>21,23480;31,0;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>106824</v>
+        <v>138872.065241</v>
       </c>
       <c r="O12" t="n">
-        <v>20829</v>
+        <v>14521.08523116</v>
       </c>
       <c r="P12" t="n">
-        <v>19048</v>
+        <v>20300.08595662</v>
       </c>
       <c r="Q12" t="n">
-        <v>431448</v>
+        <v>416616.195723</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>215724</v>
+        <v>208155.4911964</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>12049</v>
+        <v>15664.9346945</v>
       </c>
       <c r="X12" t="n">
-        <v>2350</v>
+        <v>1638.68946492</v>
       </c>
       <c r="Y12" t="n">
-        <v>2196</v>
+        <v>2341.34853486</v>
       </c>
       <c r="Z12" t="n">
-        <v>48667</v>
+        <v>46994.8040835</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>24333</v>
+        <v>23480.1878278</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,109302;31,21321;41,19682</t>
+          <t>21,142093;31,14864;41,20975</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,441456;31,1;41,1</t>
+          <t>21,426280;31,0;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,220728;31,1;41,1</t>
+          <t>21,212984;31,0;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,12325;31,2405;41,2268</t>
+          <t>21,16022;31,1676;41,2417</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,49779;31,1;41,1</t>
+          <t>21,48067;31,0;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,24889;31,1;41,1</t>
+          <t>21,24016;31,0;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>109302</v>
+        <v>142093.4936239</v>
       </c>
       <c r="O13" t="n">
-        <v>21321</v>
+        <v>14864.2223116</v>
       </c>
       <c r="P13" t="n">
-        <v>19682</v>
+        <v>20975.69376216</v>
       </c>
       <c r="Q13" t="n">
-        <v>441456</v>
+        <v>426280.4808717</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220728</v>
+        <v>212984.09373956</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>12325</v>
+        <v>16022.57630155</v>
       </c>
       <c r="X13" t="n">
-        <v>2405</v>
+        <v>1676.6470492</v>
       </c>
       <c r="Y13" t="n">
-        <v>2268</v>
+        <v>2417.50690648</v>
       </c>
       <c r="Z13" t="n">
-        <v>49779</v>
+        <v>48067.72890465</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>24889</v>
+        <v>24016.25722562</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,111780;31,21813;41,20315</t>
+          <t>21,145314;31,15207;41,21651</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,451465;31,1;41,1</t>
+          <t>21,435944;31,0;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,225732;31,1;41,1</t>
+          <t>21,217812;31,0;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,12600;31,2459;41,2339</t>
+          <t>21,16380;31,1714;41,2493</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,50890;31,1;41,1</t>
+          <t>21,49140;31,0;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,25445;31,1;41,1</t>
+          <t>21,24552;31,0;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>111780</v>
+        <v>145314.9675068</v>
       </c>
       <c r="O14" t="n">
-        <v>21813</v>
+        <v>15207.38379204</v>
       </c>
       <c r="P14" t="n">
-        <v>20315</v>
+        <v>21651.01798699</v>
       </c>
       <c r="Q14" t="n">
-        <v>451465</v>
+        <v>435944.9025204001</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>225732</v>
+        <v>217812.76448272</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>12600</v>
+        <v>16380.2634086</v>
       </c>
       <c r="X14" t="n">
-        <v>2459</v>
+        <v>1714.62903348</v>
       </c>
       <c r="Y14" t="n">
-        <v>2339</v>
+        <v>2493.63420347</v>
       </c>
       <c r="Z14" t="n">
-        <v>50890</v>
+        <v>49140.7902258</v>
       </c>
       <c r="AA14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>25445</v>
+        <v>24552.39482344</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,114258;31,22306;41,20949</t>
+          <t>21,148536;31,15550;41,22326</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,461474;31,1;41,1</t>
+          <t>21,445609;31,0;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,230737;31,1;41,1</t>
+          <t>21,222641;31,0;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,12875;31,2513;41,2411</t>
+          <t>21,16737;31,1752;41,2569</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,52001;31,1;41,1</t>
+          <t>21,50213;31,0;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,26000;31,1;41,1</t>
+          <t>21,25088;31,0;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>114258</v>
+        <v>148536.4413897</v>
       </c>
       <c r="O15" t="n">
-        <v>22306</v>
+        <v>15550.52087248</v>
       </c>
       <c r="P15" t="n">
-        <v>20949</v>
+        <v>22326.62579253</v>
       </c>
       <c r="Q15" t="n">
-        <v>461474</v>
+        <v>445609.3241691001</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>230737</v>
+        <v>222641.43522588</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>12875</v>
+        <v>16737.95051565</v>
       </c>
       <c r="X15" t="n">
-        <v>2513</v>
+        <v>1752.58661776</v>
       </c>
       <c r="Y15" t="n">
-        <v>2411</v>
+        <v>2569.79257509</v>
       </c>
       <c r="Z15" t="n">
-        <v>52001</v>
+        <v>50213.85154695001</v>
       </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>26000</v>
+        <v>25088.53242126</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,116736;31,22797;41,21583</t>
+          <t>21,151757;31,15893;41,23002</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,471482;31,1;41,1</t>
+          <t>21,455273;31,0;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,235741;31,1;41,1</t>
+          <t>21,227470;31,0;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,13150;31,2568;41,2482</t>
+          <t>21,17095;31,1790;41,2645</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,53112;31,1;41,1</t>
+          <t>21,51286;31,0;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,26556;31,1;41,1</t>
+          <t>21,25624;31,0;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>116736</v>
+        <v>151757.8697726</v>
       </c>
       <c r="O16" t="n">
-        <v>22797</v>
+        <v>15893.119706</v>
       </c>
       <c r="P16" t="n">
-        <v>21583</v>
+        <v>23002.23359807</v>
       </c>
       <c r="Q16" t="n">
-        <v>471482</v>
+        <v>455273.6093178</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>235741</v>
+        <v>227470.03776904</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>13150</v>
+        <v>17095.5921227</v>
       </c>
       <c r="X16" t="n">
-        <v>2568</v>
+        <v>1790.508722</v>
       </c>
       <c r="Y16" t="n">
-        <v>2482</v>
+        <v>2645.95094671</v>
       </c>
       <c r="Z16" t="n">
-        <v>53112</v>
+        <v>51286.77636810001</v>
       </c>
       <c r="AA16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>26556</v>
+        <v>25624.60181908</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,119214;31,23289;41,22217</t>
+          <t>21,154979;31,16236;41,23677</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,481490;31,1;41,1</t>
+          <t>21,464938;31,0;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,240745;31,1;41,1</t>
+          <t>21,232298;31,0;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,13425;31,2622;41,2554</t>
+          <t>21,17453;31,1828;41,2722</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,54223;31,1;41,1</t>
+          <t>21,52359;31,0;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,27111;31,1;41,1</t>
+          <t>21,26160;31,0;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>119214</v>
+        <v>154979.3436555</v>
       </c>
       <c r="O17" t="n">
-        <v>23289</v>
+        <v>16236.25678644</v>
       </c>
       <c r="P17" t="n">
-        <v>22217</v>
+        <v>23677.5205229</v>
       </c>
       <c r="Q17" t="n">
-        <v>481490</v>
+        <v>464938.0309665001</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>240745</v>
+        <v>232298.7085122</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>13425</v>
+        <v>17453.27922975</v>
       </c>
       <c r="X17" t="n">
-        <v>2622</v>
+        <v>1828.46630628</v>
       </c>
       <c r="Y17" t="n">
-        <v>2554</v>
+        <v>2722.0409437</v>
       </c>
       <c r="Z17" t="n">
-        <v>54223</v>
+        <v>52359.83768925001</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>27111</v>
+        <v>26160.7394169</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5107,13 +5107,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8680</v>
+        <v>8678</v>
       </c>
       <c r="C2" t="n">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="D2" t="n">
-        <v>1320</v>
+        <v>1326</v>
       </c>
       <c r="E2" t="n">
         <v>52</v>
@@ -5125,7 +5125,7 @@
         <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>20740</v>
+        <v>20741</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -5161,13 +5161,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>6504</v>
+        <v>4514</v>
       </c>
       <c r="U2" t="n">
-        <v>611</v>
+        <v>506</v>
       </c>
       <c r="V2" t="n">
-        <v>775</v>
+        <v>522</v>
       </c>
       <c r="W2" t="n">
         <v>45</v>
@@ -5179,7 +5179,7 @@
         <v>37</v>
       </c>
       <c r="Z2" t="n">
-        <v>15545</v>
+        <v>10789</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>7772</v>
+        <v>5394</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AJ2" t="n">
         <v>0</v>
@@ -5216,12 +5216,12 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,8680;31,910;41,1320;22,52;32,28;42,42</t>
+          <t>21,8678;31,912;41,1326;22,52;32,28;42,42</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,20740;31,0;41,0;22,156;32,0;42,0</t>
+          <t>21,20741;31,0;41,0;22,156;32,0;42,0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -5231,17 +5231,17 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,6504;31,611;41,775;22,45;32,24;42,37</t>
+          <t>21,4514;31,506;41,522;22,45;32,24;42,37</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,15545;31,0;41,0;22,136;32,0;42,0</t>
+          <t>21,10789;31,0;41,0;22,136;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,7772;31,0;41,0;22,68;32,0;42,0</t>
+          <t>21,5394;31,0;41,0;22,66;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5250,13 +5250,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17360</v>
+        <v>17357</v>
       </c>
       <c r="C3" t="n">
-        <v>1820</v>
+        <v>1825</v>
       </c>
       <c r="D3" t="n">
-        <v>2640</v>
+        <v>2653</v>
       </c>
       <c r="E3" t="n">
         <v>104</v>
@@ -5268,7 +5268,7 @@
         <v>85</v>
       </c>
       <c r="H3" t="n">
-        <v>41480</v>
+        <v>41482</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>20740</v>
+        <v>20741</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -5304,13 +5304,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>6813</v>
+        <v>5178</v>
       </c>
       <c r="U3" t="n">
-        <v>640</v>
+        <v>563</v>
       </c>
       <c r="V3" t="n">
-        <v>819</v>
+        <v>652</v>
       </c>
       <c r="W3" t="n">
         <v>91</v>
@@ -5322,7 +5322,7 @@
         <v>74</v>
       </c>
       <c r="Z3" t="n">
-        <v>16283</v>
+        <v>12375</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>8141</v>
+        <v>6187</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -5359,32 +5359,32 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,17360;31,1820;41,2640;22,104;32,56;42,85</t>
+          <t>21,17357;31,1825;41,2653;22,104;32,56;42,85</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,41480;31,0;41,0;22,312;32,0;42,0</t>
+          <t>21,41482;31,0;41,0;22,312;32,0;42,0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,20740;31,0;41,0;22,156;32,0;42,0</t>
+          <t>21,20741;31,0;41,0;22,156;32,0;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,6813;31,640;41,819;22,91;32,49;42,74</t>
+          <t>21,5178;31,563;41,652;22,91;32,49;42,74</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,16283;31,0;41,0;22,273;32,0;42,0</t>
+          <t>21,12375;31,0;41,0;22,273;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,8141;31,0;41,0;22,136;32,0;42,0</t>
+          <t>21,6187;31,0;41,0;22,136;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5393,13 +5393,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26040</v>
+        <v>26036</v>
       </c>
       <c r="C4" t="n">
-        <v>2730</v>
+        <v>2738</v>
       </c>
       <c r="D4" t="n">
-        <v>3960</v>
+        <v>3980</v>
       </c>
       <c r="E4" t="n">
         <v>156</v>
@@ -5411,7 +5411,7 @@
         <v>127</v>
       </c>
       <c r="H4" t="n">
-        <v>62220</v>
+        <v>62223</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>31110</v>
+        <v>31111</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -5447,13 +5447,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>7137</v>
+        <v>6298</v>
       </c>
       <c r="U4" t="n">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="V4" t="n">
-        <v>866</v>
+        <v>880</v>
       </c>
       <c r="W4" t="n">
         <v>136</v>
@@ -5465,7 +5465,7 @@
         <v>111</v>
       </c>
       <c r="Z4" t="n">
-        <v>17057</v>
+        <v>15051</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -5483,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>8528</v>
+        <v>7525</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
@@ -5502,32 +5502,32 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,26040;31,2730;41,3960;22,156;32,84;42,127</t>
+          <t>21,26036;31,2738;41,3980;22,156;32,84;42,127</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,62220;31,0;41,0;22,468;32,0;42,0</t>
+          <t>21,62223;31,0;41,0;22,468;32,0;42,0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,31110;31,0;41,0;22,234;32,0;42,0</t>
+          <t>21,31111;31,0;41,0;22,234;32,0;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,7137;31,671;41,866;22,136;32,73;42,111</t>
+          <t>21,6298;31,661;41,880;22,136;32,73;42,111</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,17057;31,0;41,0;22,409;32,0;42,0</t>
+          <t>21,15051;31,0;41,0;22,409;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,8528;31,0;41,0;22,204;32,0;42,0</t>
+          <t>21,7525;31,0;41,0;22,202;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5536,13 +5536,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>34720</v>
+        <v>34715</v>
       </c>
       <c r="C5" t="n">
-        <v>3640</v>
+        <v>3651</v>
       </c>
       <c r="D5" t="n">
-        <v>5280</v>
+        <v>5307</v>
       </c>
       <c r="E5" t="n">
         <v>208</v>
@@ -5554,7 +5554,7 @@
         <v>170</v>
       </c>
       <c r="H5" t="n">
-        <v>82960</v>
+        <v>82964</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>41480</v>
+        <v>41482</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -5590,13 +5590,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>7646</v>
+        <v>6746</v>
       </c>
       <c r="U5" t="n">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="V5" t="n">
-        <v>941</v>
+        <v>960</v>
       </c>
       <c r="W5" t="n">
         <v>182</v>
@@ -5608,7 +5608,7 @@
         <v>149</v>
       </c>
       <c r="Z5" t="n">
-        <v>18273</v>
+        <v>16123</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>9136</v>
+        <v>8061</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -5645,32 +5645,32 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,34720;31,3640;41,5280;22,208;32,112;42,170</t>
+          <t>21,34715;31,3651;41,5307;22,208;32,112;42,170</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,82960;31,0;41,0;22,624;32,0;42,0</t>
+          <t>21,82964;31,0;41,0;22,624;32,0;42,0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,41480;31,0;41,0;22,312;32,0;42,0</t>
+          <t>21,41482;31,0;41,0;22,312;32,0;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,7646;31,718;41,941;22,182;32,98;42,149</t>
+          <t>21,6746;31,709;41,960;22,182;32,98;42,149</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,18273;31,0;41,0;22,546;32,0;42,0</t>
+          <t>21,16123;31,0;41,0;22,546;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,9136;31,0;41,0;22,273;32,0;42,0</t>
+          <t>21,8061;31,0;41,0;22,273;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5679,13 +5679,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>43400</v>
+        <v>43394</v>
       </c>
       <c r="C6" t="n">
-        <v>4550</v>
+        <v>4564</v>
       </c>
       <c r="D6" t="n">
-        <v>6600</v>
+        <v>6634</v>
       </c>
       <c r="E6" t="n">
         <v>260</v>
@@ -5697,7 +5697,7 @@
         <v>213</v>
       </c>
       <c r="H6" t="n">
-        <v>103700</v>
+        <v>103705</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51850</v>
+        <v>51852</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -5733,13 +5733,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>8009</v>
+        <v>7224</v>
       </c>
       <c r="U6" t="n">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="V6" t="n">
-        <v>994</v>
+        <v>1045</v>
       </c>
       <c r="W6" t="n">
         <v>227</v>
@@ -5751,7 +5751,7 @@
         <v>186</v>
       </c>
       <c r="Z6" t="n">
-        <v>19142</v>
+        <v>17265</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>9571</v>
+        <v>8632</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
@@ -5788,32 +5788,32 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,43400;31,4550;41,6600;22,260;32,140;42,213</t>
+          <t>21,43394;31,4564;41,6634;22,260;32,140;42,213</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,103700;31,0;41,0;22,780;32,0;42,0</t>
+          <t>21,103705;31,0;41,0;22,780;32,0;42,0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,51850;31,0;41,0;22,390;32,0;42,0</t>
+          <t>21,51852;31,0;41,0;22,390;32,0;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,8009;31,752;41,994;22,227;32,122;42,186</t>
+          <t>21,7224;31,759;41,1045;22,227;32,122;42,186</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,19142;31,0;41,0;22,682;32,0;42,0</t>
+          <t>21,17265;31,0;41,0;22,682;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,9571;31,0;41,0;22,341;32,0;42,0</t>
+          <t>21,8632;31,0;41,0;22,339;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5822,13 +5822,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>52080</v>
+        <v>52072</v>
       </c>
       <c r="C7" t="n">
-        <v>5460</v>
+        <v>5477</v>
       </c>
       <c r="D7" t="n">
-        <v>7920</v>
+        <v>7961</v>
       </c>
       <c r="E7" t="n">
         <v>312</v>
@@ -5840,7 +5840,7 @@
         <v>255</v>
       </c>
       <c r="H7" t="n">
-        <v>124440</v>
+        <v>124446</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>62220</v>
+        <v>62223</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -5876,13 +5876,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>8391</v>
+        <v>7732</v>
       </c>
       <c r="U7" t="n">
-        <v>788</v>
+        <v>813</v>
       </c>
       <c r="V7" t="n">
-        <v>1049</v>
+        <v>1136</v>
       </c>
       <c r="W7" t="n">
         <v>273</v>
@@ -5894,7 +5894,7 @@
         <v>223</v>
       </c>
       <c r="Z7" t="n">
-        <v>20053</v>
+        <v>18479</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>10026</v>
+        <v>9239</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -5931,32 +5931,32 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,52080;31,5460;41,7920;22,312;32,168;42,255</t>
+          <t>21,52072;31,5477;41,7961;22,312;32,168;42,255</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,124440;31,0;41,0;22,936;32,0;42,0</t>
+          <t>21,124446;31,0;41,0;22,936;32,0;42,0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,62220;31,0;41,0;22,468;32,0;42,0</t>
+          <t>21,62223;31,0;41,0;22,468;32,0;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,8391;31,788;41,1049;22,273;32,147;42,223</t>
+          <t>21,7732;31,813;41,1136;22,273;32,147;42,223</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,20053;31,0;41,0;22,819;32,0;42,0</t>
+          <t>21,18479;31,0;41,0;22,819;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,10026;31,0;41,0;22,409;32,0;42,0</t>
+          <t>21,9239;31,0;41,0;22,409;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5965,13 +5965,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>60760</v>
+        <v>60751</v>
       </c>
       <c r="C8" t="n">
-        <v>6370</v>
+        <v>6390</v>
       </c>
       <c r="D8" t="n">
-        <v>9240</v>
+        <v>9288</v>
       </c>
       <c r="E8" t="n">
         <v>364</v>
@@ -5983,7 +5983,7 @@
         <v>298</v>
       </c>
       <c r="H8" t="n">
-        <v>145180</v>
+        <v>145187</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6001,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>72590</v>
+        <v>72593</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -6019,13 +6019,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>8790</v>
+        <v>8273</v>
       </c>
       <c r="U8" t="n">
-        <v>825</v>
+        <v>870</v>
       </c>
       <c r="V8" t="n">
-        <v>1107</v>
+        <v>1234</v>
       </c>
       <c r="W8" t="n">
         <v>318</v>
@@ -6037,7 +6037,7 @@
         <v>261</v>
       </c>
       <c r="Z8" t="n">
-        <v>21008</v>
+        <v>19771</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>10504</v>
+        <v>9885</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AJ8" t="n">
         <v>0</v>
@@ -6074,32 +6074,32 @@
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,60760;31,6370;41,9240;22,364;32,196;42,298</t>
+          <t>21,60751;31,6390;41,9288;22,364;32,196;42,298</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,145180;31,0;41,0;22,1092;32,0;42,0</t>
+          <t>21,145187;31,0;41,0;22,1092;32,0;42,0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,72590;31,0;41,0;22,546;32,0;42,0</t>
+          <t>21,72593;31,0;41,0;22,546;32,0;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,8790;31,825;41,1107;22,318;32,171;42,261</t>
+          <t>21,8273;31,870;41,1234;22,318;32,171;42,261</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,21008;31,0;41,0;22,955;32,0;42,0</t>
+          <t>21,19771;31,0;41,0;22,955;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,10504;31,0;41,0;22,477;32,0;42,0</t>
+          <t>21,9885;31,0;41,0;22,475;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6108,13 +6108,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>69440</v>
+        <v>69430</v>
       </c>
       <c r="C9" t="n">
-        <v>7280</v>
+        <v>7303</v>
       </c>
       <c r="D9" t="n">
-        <v>10560</v>
+        <v>10615</v>
       </c>
       <c r="E9" t="n">
         <v>409</v>
@@ -6126,7 +6126,7 @@
         <v>335</v>
       </c>
       <c r="H9" t="n">
-        <v>165920</v>
+        <v>165928</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>82960</v>
+        <v>82964</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -6153,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -6162,13 +6162,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>9559</v>
+        <v>9184</v>
       </c>
       <c r="U9" t="n">
-        <v>898</v>
+        <v>966</v>
       </c>
       <c r="V9" t="n">
-        <v>1220</v>
+        <v>1399</v>
       </c>
       <c r="W9" t="n">
         <v>364</v>
@@ -6180,7 +6180,7 @@
         <v>298</v>
       </c>
       <c r="Z9" t="n">
-        <v>22845</v>
+        <v>21949</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -6198,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>11422</v>
+        <v>10974</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -6217,32 +6217,32 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,69440;31,7280;41,10560;22,409;32,220;42,335</t>
+          <t>21,69430;31,7303;41,10615;22,409;32,220;42,335</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,165920;31,0;41,0;22,1228;32,0;42,0</t>
+          <t>21,165928;31,0;41,0;22,1228;32,0;42,0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,82960;31,0;41,0;22,614;32,0;42,0</t>
+          <t>21,82964;31,0;41,0;22,612;32,0;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,9559;31,898;41,1220;22,364;32,196;42,298</t>
+          <t>21,9184;31,966;41,1399;22,364;32,196;42,298</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,22845;31,0;41,0;22,1092;32,0;42,0</t>
+          <t>21,21949;31,0;41,0;22,1092;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,11422;31,0;41,0;22,546;32,0;42,0</t>
+          <t>21,10974;31,0;41,0;22,546;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6251,13 +6251,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>78120</v>
+        <v>78109</v>
       </c>
       <c r="C10" t="n">
-        <v>8190</v>
+        <v>8216</v>
       </c>
       <c r="D10" t="n">
-        <v>11880</v>
+        <v>11942</v>
       </c>
       <c r="E10" t="n">
         <v>435</v>
@@ -6269,7 +6269,7 @@
         <v>357</v>
       </c>
       <c r="H10" t="n">
-        <v>186660</v>
+        <v>186669</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>93330</v>
+        <v>93334</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -6296,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -6305,13 +6305,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>10349</v>
+        <v>9944</v>
       </c>
       <c r="U10" t="n">
-        <v>972</v>
+        <v>1046</v>
       </c>
       <c r="V10" t="n">
-        <v>1338</v>
+        <v>1534</v>
       </c>
       <c r="W10" t="n">
         <v>409</v>
@@ -6323,7 +6323,7 @@
         <v>335</v>
       </c>
       <c r="Z10" t="n">
-        <v>24733</v>
+        <v>23765</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>12366</v>
+        <v>11882</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
@@ -6360,32 +6360,32 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,78120;31,8190;41,11880;22,435;32,234;42,357</t>
+          <t>21,78109;31,8216;41,11942;22,435;32,234;42,357</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,186660;31,0;41,0;22,1306;32,0;42,0</t>
+          <t>21,186669;31,0;41,0;22,1306;32,0;42,0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,93330;31,0;41,0;22,653;32,0;42,0</t>
+          <t>21,93334;31,0;41,0;22,651;32,0;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,10349;31,972;41,1338;22,409;32,220;42,335</t>
+          <t>21,9944;31,1046;41,1534;22,409;32,220;42,335</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,24733;31,0;41,0;22,1228;32,0;42,0</t>
+          <t>21,23765;31,0;41,0;22,1228;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,12366;31,0;41,0;22,614;32,0;42,0</t>
+          <t>21,11882;31,0;41,0;22,612;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6394,25 +6394,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>86800</v>
+        <v>86788</v>
       </c>
       <c r="C11" t="n">
-        <v>9100</v>
+        <v>9129</v>
       </c>
       <c r="D11" t="n">
-        <v>13200</v>
+        <v>13269</v>
       </c>
       <c r="E11" t="n">
         <v>455</v>
       </c>
       <c r="F11" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G11" t="n">
         <v>373</v>
       </c>
       <c r="H11" t="n">
-        <v>207400</v>
+        <v>207411</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>103700</v>
+        <v>103705</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -6448,25 +6448,25 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>11157</v>
+        <v>10721</v>
       </c>
       <c r="U11" t="n">
-        <v>1048</v>
+        <v>1127</v>
       </c>
       <c r="V11" t="n">
-        <v>1459</v>
+        <v>1673</v>
       </c>
       <c r="W11" t="n">
         <v>455</v>
       </c>
       <c r="X11" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Y11" t="n">
         <v>373</v>
       </c>
       <c r="Z11" t="n">
-        <v>26664</v>
+        <v>25622</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>13332</v>
+        <v>12811</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -6503,32 +6503,32 @@
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,86800;31,9100;41,13200;22,455;32,245;42,373</t>
+          <t>21,86788;31,9129;41,13269;22,455;32,244;42,373</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,207400;31,0;41,0;22,1365;32,0;42,0</t>
+          <t>21,207411;31,0;41,0;22,1365;32,0;42,0</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,103700;31,0;41,0;22,682;32,0;42,0</t>
+          <t>21,103705;31,0;41,0;22,682;32,0;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,11157;31,1048;41,1459;22,455;32,245;42,373</t>
+          <t>21,10721;31,1127;41,1673;22,455;32,244;42,373</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,26664;31,0;41,0;22,1365;32,0;42,0</t>
+          <t>21,25622;31,0;41,0;22,1365;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,13332;31,0;41,0;22,682;32,0;42,0</t>
+          <t>21,12811;31,0;41,0;22,682;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6839,13 +6839,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5493551.285612</v>
+        <v>5735318.6292675</v>
       </c>
       <c r="U2" t="n">
-        <v>886452.4535893</v>
+        <v>911817.7103757401</v>
       </c>
       <c r="V2" t="n">
-        <v>751285.873</v>
+        <v>788232.3935229001</v>
       </c>
       <c r="W2" t="n">
         <v>3660</v>
@@ -6886,8 +6886,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,672349;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,336003;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>11648384.82544</v>
       </c>
@@ -6907,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>629230.1084886109</v>
       </c>
       <c r="AS2" t="n">
-        <v>15945356.98512817</v>
+        <v>16574587.09361678</v>
       </c>
     </row>
     <row r="3">
@@ -6974,13 +6982,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>686981.496774</v>
+        <v>715155.77600375</v>
       </c>
       <c r="U3" t="n">
-        <v>131432.2980641</v>
+        <v>134387.76437038</v>
       </c>
       <c r="V3" t="n">
-        <v>98581.769</v>
+        <v>102976.8099437</v>
       </c>
       <c r="W3" t="n">
         <v>3660</v>
@@ -7021,8 +7029,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,77981;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,38971;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1321097.41778</v>
       </c>
@@ -7042,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>73838.482169357</v>
       </c>
       <c r="AS3" t="n">
-        <v>2176099.52516629</v>
+        <v>2249938.007335647</v>
       </c>
     </row>
     <row r="4">
@@ -7514,13 +7530,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>53233.296</v>
+        <v>62102.3299392</v>
       </c>
       <c r="U7" t="n">
-        <v>10582.975</v>
+        <v>11516.45373</v>
       </c>
       <c r="V7" t="n">
-        <v>6130.654</v>
+        <v>7476.7075468</v>
       </c>
       <c r="W7" t="n">
         <v>1080</v>
@@ -7561,8 +7577,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,21314;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,10656;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>117946.284</v>
       </c>
@@ -7582,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>23049.8450703</v>
       </c>
       <c r="AS7" t="n">
-        <v>166662.584</v>
+        <v>189712.4290703</v>
       </c>
     </row>
     <row r="8">
@@ -7649,13 +7673,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>53674.143552</v>
+        <v>71413.2114304</v>
       </c>
       <c r="U8" t="n">
-        <v>10605.987925</v>
+        <v>12473.945385</v>
       </c>
       <c r="V8" t="n">
-        <v>6130.654</v>
+        <v>8824.238559000001</v>
       </c>
       <c r="W8" t="n">
         <v>1080</v>
@@ -7696,8 +7720,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,42628;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,21314;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>117946.284</v>
       </c>
@@ -7717,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>46116.08556665</v>
       </c>
       <c r="AS8" t="n">
-        <v>167262.2207345</v>
+        <v>213378.30630115</v>
       </c>
     </row>
     <row r="9">
@@ -7919,13 +7951,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>225428.341224</v>
+        <v>234968.5615544</v>
       </c>
       <c r="U10" t="n">
-        <v>42804.890424</v>
+        <v>43807.5006864</v>
       </c>
       <c r="V10" t="n">
-        <v>30523.4054</v>
+        <v>31956.99514268</v>
       </c>
       <c r="W10" t="n">
         <v>2540</v>
@@ -7966,8 +7998,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,23327;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,11663;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>537221.6582500001</v>
       </c>
@@ -7987,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>24701.37216137</v>
       </c>
       <c r="AS10" t="n">
-        <v>708609.6661996001</v>
+        <v>733311.0383609701</v>
       </c>
     </row>
     <row r="11">
@@ -8054,13 +8094,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>245325.733464</v>
+        <v>293030.835116</v>
       </c>
       <c r="U11" t="n">
-        <v>43775.71466400001</v>
+        <v>48792.76597600001</v>
       </c>
       <c r="V11" t="n">
-        <v>30523.4054</v>
+        <v>37703.03909502</v>
       </c>
       <c r="W11" t="n">
         <v>2540</v>
@@ -8101,8 +8141,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,116638;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,58318;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>537221.6582500001</v>
       </c>
@@ -8122,10 +8170,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>123605.649451165</v>
       </c>
       <c r="AS11" t="n">
-        <v>735375.7456956002</v>
+        <v>858981.395146765</v>
       </c>
     </row>
     <row r="12">
@@ -8189,13 +8237,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>265223.125704</v>
+        <v>312928.227356</v>
       </c>
       <c r="U12" t="n">
-        <v>44746.538904</v>
+        <v>49763.590216</v>
       </c>
       <c r="V12" t="n">
-        <v>30523.4054</v>
+        <v>37703.03909502</v>
       </c>
       <c r="W12" t="n">
         <v>2540</v>
@@ -8236,8 +8284,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,116638;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,58318;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>537221.6582500001</v>
       </c>
@@ -8257,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>123605.649451165</v>
       </c>
       <c r="AS12" t="n">
-        <v>762141.8251916001</v>
+        <v>885747.474642765</v>
       </c>
     </row>
     <row r="13">
@@ -8324,13 +8380,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>285120.517944</v>
+        <v>379452.945835</v>
       </c>
       <c r="U13" t="n">
-        <v>45717.363144</v>
+        <v>55635.9668592</v>
       </c>
       <c r="V13" t="n">
-        <v>30523.4054</v>
+        <v>44747.90478142</v>
       </c>
       <c r="W13" t="n">
         <v>2540</v>
@@ -8371,8 +8427,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,230044;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,115013;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>537221.6582500001</v>
       </c>
@@ -8392,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>244561.664969045</v>
       </c>
       <c r="AS13" t="n">
-        <v>788907.9046876001</v>
+        <v>1033469.569656645</v>
       </c>
     </row>
     <row r="14">
@@ -8459,13 +8523,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>285120.517944</v>
+        <v>332825.619596</v>
       </c>
       <c r="U14" t="n">
-        <v>45717.363144</v>
+        <v>50734.414456</v>
       </c>
       <c r="V14" t="n">
-        <v>30523.4054</v>
+        <v>37703.03909502</v>
       </c>
       <c r="W14" t="n">
         <v>2460</v>
@@ -8506,8 +8570,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,116638;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,58318;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>537221.6582500001</v>
       </c>
@@ -8527,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>123605.649451165</v>
       </c>
       <c r="AS14" t="n">
-        <v>788724.9046876001</v>
+        <v>912330.554138765</v>
       </c>
     </row>
     <row r="15">
@@ -8594,13 +8666,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>426554.2361824</v>
+        <v>486371.30044544</v>
       </c>
       <c r="U15" t="n">
-        <v>68840.1482174</v>
+        <v>75131.29724764</v>
       </c>
       <c r="V15" t="n">
-        <v>52165.5062</v>
+        <v>61225.14070810001</v>
       </c>
       <c r="W15" t="n">
         <v>2620</v>
@@ -8641,8 +8713,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,147681;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,73840;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>831178.18727</v>
       </c>
@@ -8662,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>155318.890993271</v>
       </c>
       <c r="AS15" t="n">
-        <v>1214513.91953246</v>
+        <v>1369832.810525731</v>
       </c>
     </row>
     <row r="16">
@@ -8729,13 +8809,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>426554.2361824</v>
+        <v>496341.14448928</v>
       </c>
       <c r="U16" t="n">
-        <v>68840.1482174</v>
+        <v>76179.98875268</v>
       </c>
       <c r="V16" t="n">
-        <v>52165.5062</v>
+        <v>62737.40064476</v>
       </c>
       <c r="W16" t="n">
         <v>2700</v>
@@ -8776,8 +8856,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,172294;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,86146;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>831178.18727</v>
       </c>
@@ -8797,10 +8885,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>181220.201057682</v>
       </c>
       <c r="AS16" t="n">
-        <v>1214696.91953246</v>
+        <v>1395917.120590142</v>
       </c>
     </row>
     <row r="17">
@@ -8864,13 +8952,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1055736.4915992</v>
+        <v>1147648.38963594</v>
       </c>
       <c r="U17" t="n">
-        <v>175357.67598</v>
+        <v>185022.4389</v>
       </c>
       <c r="V17" t="n">
-        <v>150397.9</v>
+        <v>164650.23285</v>
       </c>
       <c r="W17" t="n">
         <v>3020</v>
@@ -8911,8 +8999,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,233428;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,116604;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1915557.7176</v>
       </c>
@@ -8932,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>240549.67607224</v>
       </c>
       <c r="AS17" t="n">
-        <v>3144418.3808612</v>
+        <v>3384968.05693344</v>
       </c>
     </row>
     <row r="18">
@@ -8999,13 +9095,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5493551.285612</v>
+        <v>5735318.6292675</v>
       </c>
       <c r="U18" t="n">
-        <v>886452.4535893</v>
+        <v>911817.7103757401</v>
       </c>
       <c r="V18" t="n">
-        <v>751285.873</v>
+        <v>788232.3935229001</v>
       </c>
       <c r="W18" t="n">
         <v>3660</v>
@@ -9046,8 +9142,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,672349;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,336003;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>11648384.82544</v>
       </c>
@@ -9067,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>629230.1084886109</v>
       </c>
       <c r="AS18" t="n">
-        <v>15945356.98512817</v>
+        <v>16574587.09361678</v>
       </c>
     </row>
     <row r="19">
@@ -9134,13 +9238,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9068270.417245999</v>
+        <v>9310037.7609015</v>
       </c>
       <c r="U19" t="n">
-        <v>1465622.4994547</v>
+        <v>1490987.75624114</v>
       </c>
       <c r="V19" t="n">
-        <v>1234586.036</v>
+        <v>1271532.5565229</v>
       </c>
       <c r="W19" t="n">
         <v>4700</v>
@@ -9181,8 +9285,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,672349;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,336003;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>18895426.09801</v>
       </c>
@@ -9202,10 +9314,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>629230.1084886109</v>
       </c>
       <c r="AS19" t="n">
-        <v>26297704.37048343</v>
+        <v>26926934.47897204</v>
       </c>
     </row>
     <row r="20">
@@ -9269,13 +9381,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>202693.563328</v>
+        <v>207988.920576</v>
       </c>
       <c r="U20" t="n">
-        <v>41445.54249209999</v>
+        <v>42038.43192577999</v>
       </c>
       <c r="V20" t="n">
-        <v>26942.6244</v>
+        <v>27555.18791028</v>
       </c>
       <c r="W20" t="n">
         <v>1080</v>
@@ -9316,8 +9428,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,13150;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,6539;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>565007.65613</v>
       </c>
@@ -9337,10 +9457,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>12908.534524502</v>
       </c>
       <c r="AS20" t="n">
-        <v>648743.39682349</v>
+        <v>661651.931347992</v>
       </c>
     </row>
     <row r="21">
@@ -9404,13 +9524,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>276473.6000056</v>
+        <v>283511.97603038</v>
       </c>
       <c r="U21" t="n">
-        <v>51265.803458</v>
+        <v>52031.12556540001</v>
       </c>
       <c r="V21" t="n">
-        <v>35815.6944</v>
+        <v>36701.90953856</v>
       </c>
       <c r="W21" t="n">
         <v>1410</v>
@@ -9451,8 +9571,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,17956;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,8967;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>672155.978</v>
       </c>
@@ -9472,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>17414.83561256</v>
       </c>
       <c r="AS21" t="n">
-        <v>843730.1366658</v>
+        <v>861144.97227836</v>
       </c>
     </row>
     <row r="22">
@@ -9539,13 +9667,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>397917.752056</v>
+        <v>410943.3562666</v>
       </c>
       <c r="U22" t="n">
-        <v>68148.3036959</v>
+        <v>69515.64302336</v>
       </c>
       <c r="V22" t="n">
-        <v>51330.5938</v>
+        <v>53198.91896468</v>
       </c>
       <c r="W22" t="n">
         <v>2540</v>
@@ -9586,8 +9714,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,34695;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,17296;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>854985.6095200001</v>
       </c>
@@ -9607,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>33203.115266984</v>
       </c>
       <c r="AS22" t="n">
-        <v>1175949.96190771</v>
+        <v>1209153.077174694</v>
       </c>
     </row>
     <row r="23">
@@ -9674,13 +9810,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>472304.6688048</v>
+        <v>489393.39990392</v>
       </c>
       <c r="U23" t="n">
-        <v>79206.5111002</v>
+        <v>81001.93730314</v>
       </c>
       <c r="V23" t="n">
-        <v>58966.65590000001</v>
+        <v>61486.12933899</v>
       </c>
       <c r="W23" t="n">
         <v>2700</v>
@@ -9721,8 +9857,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,46245;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,23053;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>934665.010485</v>
       </c>
@@ -9742,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>43964.1441735985</v>
       </c>
       <c r="AS23" t="n">
-        <v>1371081.86682118</v>
+        <v>1415046.010994778</v>
       </c>
     </row>
     <row r="24">
@@ -9809,13 +9953,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>542338.0424800001</v>
+        <v>562862.766056</v>
       </c>
       <c r="U24" t="n">
-        <v>96389.76601000001</v>
+        <v>98548.45678200001</v>
       </c>
       <c r="V24" t="n">
-        <v>72065.5753</v>
+        <v>75164.80760393999</v>
       </c>
       <c r="W24" t="n">
         <v>3020</v>
@@ -9856,8 +10000,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,55971;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,27985;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1060324.130975</v>
       </c>
@@ -9877,10 +10029,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>53240.27565045501</v>
       </c>
       <c r="AS24" t="n">
-        <v>1635730.485924</v>
+        <v>1688970.761574455</v>
       </c>
     </row>
     <row r="25">
@@ -9944,13 +10096,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>686981.496774</v>
+        <v>715155.77600375</v>
       </c>
       <c r="U25" t="n">
-        <v>131432.2980641</v>
+        <v>134387.76437038</v>
       </c>
       <c r="V25" t="n">
-        <v>98581.769</v>
+        <v>102976.8099437</v>
       </c>
       <c r="W25" t="n">
         <v>3660</v>
@@ -9991,8 +10143,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,77981;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,38971;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1321097.41778</v>
       </c>
@@ -10012,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>73838.482169357</v>
       </c>
       <c r="AS25" t="n">
-        <v>2176099.52516629</v>
+        <v>2249938.007335647</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/10.xlsx
+++ b/opm_hero_property/heroes/10.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>10</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5735318.6292675</v>
+        <v>6552791.7829475</v>
       </c>
       <c r="U2" t="n">
-        <v>911817.7103757401</v>
+        <v>1071518.33918374</v>
       </c>
       <c r="V2" t="n">
-        <v>788232.3935229001</v>
+        <v>940580.2793629001</v>
       </c>
       <c r="W2" t="n">
         <v>3660</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11648384.82544</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1694594.10968817</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2007105.4</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2938910.1860352</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1863603.05</v>
+      </c>
+      <c r="AU2" t="n">
         <v>629230.1084886109</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16574587.09361678</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19369994.92965198</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>10</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>715155.77600375</v>
+        <v>807216.86036375</v>
       </c>
       <c r="U3" t="n">
-        <v>134387.76437038</v>
+        <v>152371.73586638</v>
       </c>
       <c r="V3" t="n">
-        <v>102976.8099437</v>
+        <v>120490.9674637</v>
       </c>
       <c r="W3" t="n">
         <v>3660</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1321097.41778</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>191292.10738629</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>480680.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>586302.3934224001</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>211235.1</v>
+      </c>
+      <c r="AU3" t="n">
         <v>73838.482169357</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2249938.007335647</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2566794.900758047</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>10</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7150.160400000001</v>
+        <v>7580.160400000001</v>
       </c>
       <c r="U4" t="n">
-        <v>1629.4136</v>
+        <v>1713.4136</v>
       </c>
       <c r="V4" t="n">
-        <v>618.3692</v>
+        <v>698.3692</v>
       </c>
       <c r="W4" t="n">
         <v>562</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19212.08714</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4549.950000000001</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23762.03714</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1469.6</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25231.63714</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>10</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>18931.3914</v>
+        <v>31586.3914</v>
       </c>
       <c r="U5" t="n">
-        <v>4083.396</v>
+        <v>6555.396000000001</v>
       </c>
       <c r="V5" t="n">
-        <v>1922.297</v>
+        <v>4280.297</v>
       </c>
       <c r="W5" t="n">
         <v>673</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>49054.13155000001</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11988.35</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>61042.48155</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>43270.3</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>104312.78155</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>10</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>53233.296</v>
+        <v>107486.296</v>
       </c>
       <c r="U6" t="n">
-        <v>10582.975</v>
+        <v>21180.975</v>
       </c>
       <c r="V6" t="n">
-        <v>6130.654</v>
+        <v>16240.654</v>
       </c>
       <c r="W6" t="n">
         <v>1000</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>117946.284</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32846</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9526.799999999999</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>166479.584</v>
+      <c r="AT6" t="n">
+        <v>185511.7</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>351991.284</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>10</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>62102.3299392</v>
+        <v>116355.3299392</v>
       </c>
       <c r="U7" t="n">
-        <v>11516.45373</v>
+        <v>22114.45373</v>
       </c>
       <c r="V7" t="n">
-        <v>7476.7075468</v>
+        <v>17586.7075468</v>
       </c>
       <c r="W7" t="n">
         <v>1080</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>117946.284</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32846</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9709.799999999999</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>185511.7</v>
+      </c>
+      <c r="AU7" t="n">
         <v>23049.8450703</v>
       </c>
-      <c r="AS7" t="n">
-        <v>189712.4290703</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>375224.1290703</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>10</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>71413.2114304</v>
+        <v>125666.2114304</v>
       </c>
       <c r="U8" t="n">
-        <v>12473.945385</v>
+        <v>23071.945385</v>
       </c>
       <c r="V8" t="n">
-        <v>8824.238559000001</v>
+        <v>18934.238559</v>
       </c>
       <c r="W8" t="n">
         <v>1080</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>117946.284</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32846</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>599.6367345000001</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9709.799999999999</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>185511.7</v>
+      </c>
+      <c r="AU8" t="n">
         <v>46116.08556665</v>
       </c>
-      <c r="AS8" t="n">
-        <v>213378.30630115</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>398890.00630115</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>10</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>223438.602</v>
+        <v>389009.71802</v>
       </c>
       <c r="U9" t="n">
-        <v>42707.808</v>
+        <v>72809.41608</v>
       </c>
       <c r="V9" t="n">
-        <v>30523.4054</v>
+        <v>58526.571454</v>
       </c>
       <c r="W9" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="AA9" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="AB9" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>537221.6582500001</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>705950.0582500001</v>
+        <v>44702.3665825</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>434698.85</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1240360.4748325</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>10</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>234968.5615544</v>
+        <v>457346.3517707392</v>
       </c>
       <c r="U10" t="n">
-        <v>43807.5006864</v>
+        <v>83291.40468199042</v>
       </c>
       <c r="V10" t="n">
-        <v>31956.99514268</v>
+        <v>66536.64409822025</v>
       </c>
       <c r="W10" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="AA10" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="AB10" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>537221.6582500001</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2659.6079496</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44702.3665825</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>434698.85</v>
+      </c>
+      <c r="AU10" t="n">
         <v>24701.37216137</v>
       </c>
-      <c r="AS10" t="n">
-        <v>733311.0383609701</v>
+      <c r="AV10" t="n">
+        <v>253706.8926977695</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1427080.74764124</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>10</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>293030.835116</v>
+        <v>580628.466256448</v>
       </c>
       <c r="U11" t="n">
-        <v>48792.76597600001</v>
+        <v>97166.827522016</v>
       </c>
       <c r="V11" t="n">
-        <v>37703.03909502</v>
+        <v>79512.11684170237</v>
       </c>
       <c r="W11" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="AA11" t="n">
-        <v>3800</v>
+        <v>3810</v>
       </c>
       <c r="AB11" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>537221.6582500001</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>29425.6874456</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44702.3665825</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>434698.85</v>
+      </c>
+      <c r="AU11" t="n">
         <v>123605.649451165</v>
       </c>
-      <c r="AS11" t="n">
-        <v>858981.395146765</v>
+      <c r="AV11" t="n">
+        <v>421838.036268882</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1720882.247998147</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>10</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>312928.227356</v>
+        <v>683289.2855868959</v>
       </c>
       <c r="U12" t="n">
-        <v>49763.590216</v>
+        <v>107532.943460216</v>
       </c>
       <c r="V12" t="n">
-        <v>37703.03909502</v>
+        <v>90506.24976527886</v>
       </c>
       <c r="W12" t="n">
-        <v>2540</v>
+        <v>2560</v>
       </c>
       <c r="X12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2340</v>
+        <v>2360</v>
       </c>
       <c r="AA12" t="n">
-        <v>4000</v>
+        <v>4020</v>
       </c>
       <c r="AB12" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>537221.6582500001</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>56191.7669416</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44702.3665825</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>434698.85</v>
+      </c>
+      <c r="AU12" t="n">
         <v>123605.649451165</v>
       </c>
-      <c r="AS12" t="n">
-        <v>885747.474642765</v>
+      <c r="AV12" t="n">
+        <v>632765.2403874747</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1958575.531612739</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>10</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>379452.945835</v>
+        <v>847283.0391539549</v>
       </c>
       <c r="U13" t="n">
-        <v>55635.9668592</v>
+        <v>126376.9040129232</v>
       </c>
       <c r="V13" t="n">
-        <v>44747.90478142</v>
+        <v>108700.4718105076</v>
       </c>
       <c r="W13" t="n">
-        <v>2540</v>
+        <v>2590</v>
       </c>
       <c r="X13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2340</v>
+        <v>2390</v>
       </c>
       <c r="AA13" t="n">
-        <v>4200</v>
+        <v>4250</v>
       </c>
       <c r="AB13" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>537221.6582500001</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>82957.8464376</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44702.3665825</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>434698.85</v>
+      </c>
+      <c r="AU13" t="n">
         <v>244561.664969045</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1033469.569656645</v>
+      <c r="AV13" t="n">
+        <v>884207.0035143988</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2357739.389753544</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>10</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>332825.619596</v>
+        <v>931936.8669255681</v>
       </c>
       <c r="U14" t="n">
-        <v>50734.414456</v>
+        <v>136212.503076864</v>
       </c>
       <c r="V14" t="n">
-        <v>37703.03909502</v>
+        <v>111667.4100725965</v>
       </c>
       <c r="W14" t="n">
-        <v>2460</v>
+        <v>2510</v>
       </c>
       <c r="X14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2280</v>
+        <v>2330</v>
       </c>
       <c r="AA14" t="n">
-        <v>4200</v>
+        <v>4250</v>
       </c>
       <c r="AB14" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>537221.6582500001</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>82957.8464376</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>39155.4</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44519.3665825</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>434698.85</v>
+      </c>
+      <c r="AU14" t="n">
         <v>123605.649451165</v>
       </c>
-      <c r="AS14" t="n">
-        <v>912330.554138765</v>
+      <c r="AV14" t="n">
+        <v>1174742.375352094</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2527135.74607336</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>10</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>486371.30044544</v>
+        <v>1470435.047894306</v>
       </c>
       <c r="U15" t="n">
-        <v>75131.29724764</v>
+        <v>228075.3388434948</v>
       </c>
       <c r="V15" t="n">
-        <v>61225.14070810001</v>
+        <v>189267.8018698803</v>
       </c>
       <c r="W15" t="n">
-        <v>2620</v>
+        <v>2720</v>
       </c>
       <c r="X15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="AA15" t="n">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="AB15" t="n">
-        <v>1080</v>
+        <v>1480</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>831178.18727</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>123952.58226246</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111894</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>128501.0637454</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>795350.7</v>
+      </c>
+      <c r="AU15" t="n">
         <v>155318.890993271</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1369832.810525731</v>
+      <c r="AV15" t="n">
+        <v>1964865.172395101</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4146655.746666232</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>10</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>496341.14448928</v>
+        <v>1508633.322100403</v>
       </c>
       <c r="U16" t="n">
-        <v>76179.98875268</v>
+        <v>233406.6101745065</v>
       </c>
       <c r="V16" t="n">
-        <v>62737.40064476</v>
+        <v>194281.0421801168</v>
       </c>
       <c r="W16" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="X16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2460</v>
+        <v>2660</v>
       </c>
       <c r="AA16" t="n">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="AB16" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>831178.18727</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>123952.58226246</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>112077</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128684.0637454</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>795350.7</v>
+      </c>
+      <c r="AU16" t="n">
         <v>181220.201057682</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1395917.120590142</v>
+      <c r="AV16" t="n">
+        <v>2043974.040504628</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4251848.92484017</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>10</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1147648.38963594</v>
+        <v>2727504.153450496</v>
       </c>
       <c r="U17" t="n">
-        <v>185022.4389</v>
+        <v>424395.7451376001</v>
       </c>
       <c r="V17" t="n">
-        <v>164650.23285</v>
+        <v>374585.0116632</v>
       </c>
       <c r="W17" t="n">
-        <v>3020</v>
+        <v>3220</v>
       </c>
       <c r="X17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="AA17" t="n">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="AB17" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1915557.7176</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>273879.1632612</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685015</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>761604.308704</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1270782.85</v>
+      </c>
+      <c r="AU17" t="n">
         <v>240549.67607224</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3384968.05693344</v>
+      <c r="AV17" t="n">
+        <v>3093684.396325896</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7826024.611963337</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>10</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5735318.6292675</v>
+        <v>9789143.80961447</v>
       </c>
       <c r="U18" t="n">
-        <v>911817.7103757401</v>
+        <v>1466501.103207421</v>
       </c>
       <c r="V18" t="n">
-        <v>788232.3935229001</v>
+        <v>1274730.496327722</v>
       </c>
       <c r="W18" t="n">
-        <v>3660</v>
+        <v>3860</v>
       </c>
       <c r="X18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>3180</v>
+        <v>3380</v>
       </c>
       <c r="AA18" t="n">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="AB18" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11648384.82544</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1694594.10968817</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2007105.4</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2938910.1860352</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1863603.05</v>
+      </c>
+      <c r="AU18" t="n">
         <v>629230.1084886109</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16574587.09361678</v>
+      <c r="AV18" t="n">
+        <v>7885496.845978098</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27255491.77563008</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>10</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9310037.7609015</v>
+        <v>16707134.87664417</v>
       </c>
       <c r="U19" t="n">
-        <v>1490987.75624114</v>
+        <v>2624390.426616549</v>
       </c>
       <c r="V19" t="n">
-        <v>1271532.5565229</v>
+        <v>2257538.710436713</v>
       </c>
       <c r="W19" t="n">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="X19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>3960</v>
+        <v>4160</v>
       </c>
       <c r="AA19" t="n">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="AB19" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18895426.09801</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>2755957.12247343</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3470479</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6304669.1647015</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1863603.05</v>
+      </c>
+      <c r="AU19" t="n">
         <v>629230.1084886109</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26926934.47897204</v>
+      <c r="AV19" t="n">
+        <v>16191717.71163592</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47816445.40530947</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>10</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>207988.920576</v>
+        <v>214097.920576</v>
       </c>
       <c r="U20" t="n">
-        <v>42038.43192577999</v>
+        <v>43231.43192577999</v>
       </c>
       <c r="V20" t="n">
-        <v>27555.18791028</v>
+        <v>28717.18791028</v>
       </c>
       <c r="W20" t="n">
         <v>1080</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>565007.65613</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32846</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2833.04069349</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>33359.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>21022.2</v>
+      </c>
+      <c r="AU20" t="n">
         <v>12908.534524502</v>
       </c>
-      <c r="AS20" t="n">
-        <v>661651.931347992</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>682674.131347992</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>10</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>283511.97603038</v>
+        <v>296156.34528838</v>
       </c>
       <c r="U21" t="n">
-        <v>52031.12556540001</v>
+        <v>54514.02782540001</v>
       </c>
       <c r="V21" t="n">
-        <v>36701.90953856</v>
+        <v>39034.41648256</v>
       </c>
       <c r="W21" t="n">
         <v>1410</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>672155.978</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49269</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>36557.4586658</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>66719.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>73432.90978</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>36475</v>
+      </c>
+      <c r="AU21" t="n">
         <v>17414.83561256</v>
       </c>
-      <c r="AS21" t="n">
-        <v>861144.97227836</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>904333.2820583601</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>10</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>410943.3562666</v>
+        <v>537707.5172736542</v>
       </c>
       <c r="U22" t="n">
-        <v>69515.64302336</v>
+        <v>88359.08264348516</v>
       </c>
       <c r="V22" t="n">
-        <v>53198.91896468</v>
+        <v>69146.80652250513</v>
       </c>
       <c r="W22" t="n">
-        <v>2540</v>
+        <v>2590</v>
       </c>
       <c r="X22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2340</v>
+        <v>2390</v>
       </c>
       <c r="AA22" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="AB22" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>854985.6095200001</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>86421.30238770999</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>96891.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>105433.0060952</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>49265.65</v>
+      </c>
+      <c r="AU22" t="n">
         <v>33203.115266984</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1209153.077174694</v>
+      <c r="AV22" t="n">
+        <v>291276.9917482123</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1558237.325018106</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>10</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>489393.39990392</v>
+        <v>707928.7620632203</v>
       </c>
       <c r="U23" t="n">
-        <v>81001.93730314</v>
+        <v>116822.8934220404</v>
       </c>
       <c r="V23" t="n">
-        <v>61486.12933899</v>
+        <v>89334.78426033957</v>
       </c>
       <c r="W23" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="X23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2460</v>
+        <v>2660</v>
       </c>
       <c r="AA23" t="n">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="AB23" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>934665.010485</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>138365.25633618</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>153419</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>172095.8002097</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>90152.55</v>
+      </c>
+      <c r="AU23" t="n">
         <v>43964.1441735985</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1415046.010994778</v>
+      <c r="AV23" t="n">
+        <v>519400.3749677729</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2043275.736172251</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>10</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>562862.766056</v>
+        <v>884935.204192016</v>
       </c>
       <c r="U24" t="n">
-        <v>98548.45678200001</v>
+        <v>152532.838135474</v>
       </c>
       <c r="V24" t="n">
-        <v>75164.80760393999</v>
+        <v>117960.477362657</v>
       </c>
       <c r="W24" t="n">
-        <v>3020</v>
+        <v>3220</v>
       </c>
       <c r="X24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="AA24" t="n">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="AB24" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1060324.130975</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>155458.154949</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>262506.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>304886.165239</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>144039</v>
+      </c>
+      <c r="AU24" t="n">
         <v>53240.27565045501</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1688970.761574455</v>
+      <c r="AV24" t="n">
+        <v>756620.8053486096</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2632010.532162065</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>10</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>715155.77600375</v>
+        <v>1504785.92022126</v>
       </c>
       <c r="U25" t="n">
-        <v>134387.76437038</v>
+        <v>262389.3701007811</v>
       </c>
       <c r="V25" t="n">
-        <v>102976.8099437</v>
+        <v>206526.4420501191</v>
       </c>
       <c r="W25" t="n">
-        <v>3660</v>
+        <v>3860</v>
       </c>
       <c r="X25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>3180</v>
+        <v>3380</v>
       </c>
       <c r="AA25" t="n">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="AB25" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1321097.41778</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>191292.10738629</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>480680.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>586302.3934224001</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>211235.1</v>
+      </c>
+      <c r="AU25" t="n">
         <v>73838.482169357</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2249938.007335647</v>
+      <c r="AV25" t="n">
+        <v>1953794.714946788</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4520589.615704835</v>
       </c>
     </row>
   </sheetData>
